--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\4.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26209600-5989-479B-BAC9-694AFBBDC38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B9BAD-0388-4321-94E4-852F8022817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>EventNumber</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>주변을 둘러보란말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,6 +616,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777B9BAD-0388-4321-94E4-852F8022817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762A42C-5C93-4260-95F8-42DE67CED585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="10395" yWindow="2985" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>EventNumber</t>
   </si>
@@ -107,6 +107,78 @@
   </si>
   <si>
     <t>나는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리들은 저주를 받아서 이런 원통형 모양이 되버렸어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 나가면 자연이 펼쳐져 있을거야 마왕을 잡고 우리를 구원해줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 자연이 펼쳐져있다더니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비슷한 공간의 여긴 어디지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에있는 저 사람한테 물어보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 포탈의 관리인 열쇠공이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈을 연결하는 일을 하는데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 포탈마다 고유 숫자를 사칙연산을 통해 만들어 냈는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의 저주로 인해 연산 부호도, 하는 방법도 까먹었지 하하하하하하!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를 도와주지 않겠니, 사실 도와주지 않으면 여기서 나가지 못할거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마음에 내키지는 않지만 도와줘야 겠다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(처음처럼 주변에서 물건들을 찾아보자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프를 해서 본다던가 ( 점프는 space 다 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 샅샅이 찾아봐 +, -, *, / 4개가 필요해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 문제를 해결해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단하군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,6 +699,204 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762A42C-5C93-4260-95F8-42DE67CED585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1EB78-1E08-433B-9E16-1248770148E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="2985" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="6705" yWindow="3195" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1EB78-1E08-433B-9E16-1248770148E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891B70F-6C92-430D-A7E5-B566AF68BACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6705" yWindow="3195" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>EventNumber</t>
   </si>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,10 +755,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,10 +821,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -891,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891B70F-6C92-430D-A7E5-B566AF68BACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC88E0-270B-490C-82E7-8672334FA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="3195" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7395" yWindow="3885" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>EventNumber</t>
   </si>
@@ -47,134 +47,163 @@
     <t>Conversation</t>
   </si>
   <si>
+    <t>이봐! 드디어 일어난거야?</t>
+  </si>
+  <si>
     <t>&lt;나&gt;</t>
+  </si>
+  <si>
+    <t>"…"</t>
+  </si>
+  <si>
+    <t>"어라? 나 분명 방금까지…"</t>
+  </si>
+  <si>
+    <t>여기는 어디지…? 내가 누구더라...?</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>지금 세계는 마왕이 저주를 걸면서 모든 사람들의 코딩능력을 뺏어갔어</t>
+  </si>
+  <si>
+    <t>그리고 나는 마침내 이 세계를 구할 용사로 너를 소환했지</t>
+  </si>
+  <si>
+    <t>그리고 나는 월드박사야</t>
+  </si>
+  <si>
+    <t>월드박사</t>
+  </si>
+  <si>
+    <t>이제 너의 이름과 나이를 알려줘..!</t>
+  </si>
+  <si>
+    <t>첫만남대사</t>
+  </si>
+  <si>
+    <t>…뭐? 어떻게 해야하는지 잘 모르겠다고..? 이것 참 난감한걸..</t>
+  </si>
+  <si>
+    <t>내 연구실을 둘러다보면 기억이 날 지도 몰라. 이것 저것 만져봐</t>
+  </si>
+  <si>
+    <t>주변을 둘러보란말이야, 빨간색 아이템을 말이야!</t>
+  </si>
+  <si>
+    <t>문제조건</t>
+  </si>
+  <si>
+    <t>시작해볼까?</t>
+  </si>
+  <si>
+    <t>문제시작</t>
+  </si>
+  <si>
+    <t>대단하군</t>
+  </si>
+  <si>
+    <t>문제종료</t>
+  </si>
+  <si>
+    <t>우리들은 저주를 받아서 이런 원통형 모양이 되버렸어</t>
+  </si>
+  <si>
+    <t>밖에 나가면 자연이 펼쳐져 있을거야 마왕을 잡고 우리를 구원해줘!</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>뭐야 자연이 펼쳐져있다더니</t>
+  </si>
+  <si>
+    <t>비슷한 공간의 여긴 어디지?</t>
+  </si>
+  <si>
+    <t>앞에있는 저 사람한테 물어보자</t>
+  </si>
+  <si>
+    <t>열쇠공</t>
+  </si>
+  <si>
+    <t>나는 포탈의 관리인 열쇠공이다.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>포탈을 연결하는 일을 하는데..</t>
+  </si>
+  <si>
+    <t>각 포탈마다 고유 숫자를 사칙연산을 통해 만들어 냈는데</t>
+  </si>
+  <si>
+    <t>마왕의 저주로 인해 연산 부호도, 하는 방법도 까먹었지 하하하하하하!</t>
+  </si>
+  <si>
+    <t>나를 도와주지 않겠니, 사실 도와주지 않으면 여기서 나가지 못할거야</t>
+  </si>
+  <si>
+    <t>(마음에 내키지는 않지만 도와줘야 겠다)</t>
+  </si>
+  <si>
+    <t>(처음처럼 주변에서 물건들을 찾아보자)</t>
+  </si>
+  <si>
+    <t>주변을 샅샅이 찾아봐 +, -, *, / 4개가 필요해!</t>
+  </si>
+  <si>
+    <t>점프를 해서 본다던가 ( 점프는 space 다 )</t>
+  </si>
+  <si>
+    <t>이제 문제를 해결해볼까?</t>
+  </si>
+  <si>
+    <t>경비병</t>
+  </si>
+  <si>
+    <t>검문데스</t>
+  </si>
+  <si>
+    <t>물건이 10개이상 필요!</t>
+  </si>
+  <si>
+    <t>몇번째칸 뭐있는지 말해!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종료 </t>
+  </si>
+  <si>
+    <t>자네한테 이 증표를 주마</t>
+  </si>
+  <si>
+    <t>점술사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와타시 별이 필요 </t>
+  </si>
+  <si>
+    <t>별 필드어딘가에 있, 별은 가장 높은 산에 있데</t>
+  </si>
+  <si>
+    <t>별 별 별</t>
+  </si>
+  <si>
+    <t>슬라임술사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"…"</t>
+    <t>문제조건 실패시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"어라? 나 분명 방금까지…"</t>
+    <t>자네의 공격력 보다 높은 적만을 처치할수 있다네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여기는 어디지…? 내가 누구더라...?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이봐! 드디어 일어난거야?</t>
-  </si>
-  <si>
-    <t>지금 세계는 마왕이 저주를 걸면서 모든 사람들의 코딩능력을 뺏어갔어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 나는 마침내 이 세계를 구할 용사로 너를 소환했지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 너의 이름과 나이를 알려줘..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…뭐? 어떻게 해야하는지 잘 모르겠다고..? 이것 참 난감한걸..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드박사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 나는 월드박사야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 연구실을 둘러다보면 기억이 날 지도 몰라. 이것 저것 만져봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변을 둘러보란말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리들은 저주를 받아서 이런 원통형 모양이 되버렸어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에 나가면 자연이 펼쳐져 있을거야 마왕을 잡고 우리를 구원해줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야 자연이 펼쳐져있다더니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비슷한 공간의 여긴 어디지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞에있는 저 사람한테 물어보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 포탈의 관리인 열쇠공이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈을 연결하는 일을 하는데..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 포탈마다 고유 숫자를 사칙연산을 통해 만들어 냈는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마왕의 저주로 인해 연산 부호도, 하는 방법도 까먹었지 하하하하하하!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나를 도와주지 않겠니, 사실 도와주지 않으면 여기서 나가지 못할거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(마음에 내키지는 않지만 도와줘야 겠다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(처음처럼 주변에서 물건들을 찾아보자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프를 해서 본다던가 ( 점프는 space 다 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변을 샅샅이 찾아봐 +, -, *, / 4개가 필요해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 문제를 해결해볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대단하군</t>
+    <t>나는 슬라임을 다루는 슬라임술사 하지만 저주에 걸려 조종을 못하게됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,7 +581,7 @@
     <col min="3" max="3" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,191 +592,203 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,98 +796,98 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,21 +895,21 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,10 +917,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,10 +928,222 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC88E0-270B-490C-82E7-8672334FA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B4C22-E8B7-4EF4-86D0-3D74E64BD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="3885" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7740" yWindow="4230" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>EventNumber</t>
   </si>
@@ -71,9 +71,6 @@
     <t>그리고 나는 마침내 이 세계를 구할 용사로 너를 소환했지</t>
   </si>
   <si>
-    <t>그리고 나는 월드박사야</t>
-  </si>
-  <si>
     <t>월드박사</t>
   </si>
   <si>
@@ -95,115 +92,188 @@
     <t>문제조건</t>
   </si>
   <si>
-    <t>시작해볼까?</t>
-  </si>
-  <si>
     <t>문제시작</t>
   </si>
   <si>
-    <t>대단하군</t>
-  </si>
-  <si>
     <t>문제종료</t>
   </si>
   <si>
-    <t>우리들은 저주를 받아서 이런 원통형 모양이 되버렸어</t>
-  </si>
-  <si>
-    <t>밖에 나가면 자연이 펼쳐져 있을거야 마왕을 잡고 우리를 구원해줘!</t>
-  </si>
-  <si>
     <t>나</t>
   </si>
   <si>
     <t>뭐야 자연이 펼쳐져있다더니</t>
   </si>
   <si>
+    <t>열쇠공</t>
+  </si>
+  <si>
+    <t>(마음에 내키지는 않지만 도와줘야 겠다)</t>
+  </si>
+  <si>
+    <t>(처음처럼 주변에서 물건들을 찾아보자)</t>
+  </si>
+  <si>
+    <t>주변을 샅샅이 찾아봐 +, -, *, / 4개가 필요해!</t>
+  </si>
+  <si>
+    <t>이제 문제를 해결해볼까?</t>
+  </si>
+  <si>
+    <t>경비병</t>
+  </si>
+  <si>
+    <t>점술사</t>
+  </si>
+  <si>
+    <t>슬라임술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제조건 실패시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네의 공격력 보다 높은 적만을 처치할수 있다네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아차 내 이름을 소개 안했네. 나는 월드박사야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 기억을 되살려볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단해! 이렇게 쉽게 문제를 해결하다니..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면… 너는 우리들을 구원할지도 몰라. 우린 저주를 받아서 이런 원통형 모양이 되버렸거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕을 잡고 우리를 구원해줘! 이제 밖에 나가면 자연이 펼쳐져 있을거야..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비슷한 공간의 여긴 어디지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>앞에있는 저 사람한테 물어보자</t>
-  </si>
-  <si>
-    <t>열쇠공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나는 포탈의 관리인 열쇠공이다.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>포탈을 연결하는 일을 하는데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 나는 어째서 여기 있는거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 일은 포탈을 연결하는 것이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>각 포탈마다 고유 숫자를 사칙연산을 통해 만들어 냈는데</t>
-  </si>
-  <si>
-    <t>마왕의 저주로 인해 연산 부호도, 하는 방법도 까먹었지 하하하하하하!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의 저주로 인해 연산 부호도, 하는 방법도 까먹었지 뭐야 하하하하하하!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?.. 이렇게 당당하다니..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나를 도와주지 않겠니, 사실 도와주지 않으면 여기서 나가지 못할거야</t>
-  </si>
-  <si>
-    <t>(마음에 내키지는 않지만 도와줘야 겠다)</t>
-  </si>
-  <si>
-    <t>(처음처럼 주변에서 물건들을 찾아보자)</t>
-  </si>
-  <si>
-    <t>주변을 샅샅이 찾아봐 +, -, *, / 4개가 필요해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>점프를 해서 본다던가 ( 점프는 space 다 )</t>
-  </si>
-  <si>
-    <t>이제 문제를 해결해볼까?</t>
-  </si>
-  <si>
-    <t>경비병</t>
-  </si>
-  <si>
-    <t>검문데스</t>
-  </si>
-  <si>
-    <t>물건이 10개이상 필요!</t>
-  </si>
-  <si>
-    <t>몇번째칸 뭐있는지 말해!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">종료 </t>
-  </si>
-  <si>
-    <t>자네한테 이 증표를 주마</t>
-  </si>
-  <si>
-    <t>점술사</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와타시 별이 필요 </t>
-  </si>
-  <si>
-    <t>별 필드어딘가에 있, 별은 가장 높은 산에 있데</t>
-  </si>
-  <si>
-    <t>별 별 별</t>
-  </si>
-  <si>
-    <t>슬라임술사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제조건 실패시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자네의 공격력 보다 높은 적만을 처치할수 있다네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 슬라임을 다루는 슬라임술사 하지만 저주에 걸려 조종을 못하게됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠깐! 소지품에 대해 검문이 있겠다! 협조하지 않으면 강제로 진행하겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 소지품이라고 할 게 없는걸? 돌아가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지품이 어떤 칸에 존재하는지 낱낱이 말하는게 좋을거다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 슬라임을 다루는 슬라임술사 하지만 저주에 걸려 조종을 못하게 되버렸다네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 뭔가 부족한데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽게 통과하시는 걸 보니.. 어쩌면 저희를 도우러 온 용사시겠군요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 경비병들에게 내려오는 증표입니다. 3개를 모으면 뭔가 일어난다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런.. 마왕의 저주로 별이 흩어져버렸어.. 점을 치려면… 별이 필요한데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별은 이 마을 어딘가에 있어.. 가장 높은 산에 떨어졌다는 소문이 들리기도 해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 다시 점을 칠 수 있겠어 고마워..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아.. 나를 위해서 별자리를 만들어 주겠니..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 내 가보야.. 고마워서 그러니 꼭 가져가줘..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말썽꾸러기 슬라임들을 이렇게 손쉽게 처리하다니.. 고맙네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네한테 줄 건 없지만.. 이 몸을 도와준 증표를 주겠네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단하군, 뒤쪽의 포탈로 나가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들의 부탁을 들어다 주다 보니 어느새 나는 원래 세상으로 돌아갈 수 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 마왕은 누구였을까? 왜 마왕은 내앞에 나타나지 않았을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 이 세상에 놓치고 있는게 있었을까? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 의심만 가득한채 나는 원래의 세계로 돌아간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,17 +638,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="3" max="4" width="82.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -666,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,13 +794,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -763,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,10 +855,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,10 +877,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,10 +932,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,10 +954,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -906,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -917,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,13 +1020,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,13 +1048,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,10 +1076,10 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,13 +1087,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,13 +1101,13 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,13 +1115,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,13 +1129,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,10 +1143,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,13 +1154,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,13 +1168,13 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,13 +1182,13 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,13 +1196,13 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,10 +1210,51 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/textdatasheet.xlsx
+++ b/Assets/Resources/textdatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B4C22-E8B7-4EF4-86D0-3D74E64BD297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C26AC-009A-43DC-A618-ECA9F47777A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7740" yWindow="4230" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
@@ -265,15 +265,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 마왕은 누구였을까? 왜 마왕은 내앞에 나타나지 않았을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">내가 이 세상에 놓치고 있는게 있었을까? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여러가지 의심만 가득한채 나는 원래의 세계로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막에 월드박사의 모습이 왜 보일까? 왜 마왕은 내앞에 나타나지 않았을까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +641,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,7 +1235,7 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
